--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.73</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.73</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.31</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.91</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.32</v>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.1</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.31</v>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.91</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1471,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1509,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.51</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.31</v>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1745,14 +1832,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.91</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="6">
@@ -1761,14 +1970,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="7">
@@ -1777,13 +1986,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.31</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.91</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.23</t>
+          <t>42.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5791</t>
+          <t>2.5331</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013991</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9509</t>
+          <t>0.4425</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7743</t>
+          <t>0.4034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3917</t>
+          <t>0.2822</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1375,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1614,138 +1839,6 @@
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6244</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2882</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1820,26 +1913,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.28</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2063</t>
+          <t>2.6244</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1858,26 +1951,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.2882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1886,6 +1979,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01268-美东汽车.xlsx
+++ b/数据整理/stocks/港股/01268-美东汽车.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.51</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.31</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.91</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.32</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>54.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5331</t>
+          <t>2.9844</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +870,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4425</t>
+          <t>0.9177</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +908,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4034</t>
+          <t>0.4005</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -797,25 +946,329 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2822</t>
+          <t>0.2720</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -891,26 +1344,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.23</t>
+          <t>42.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5791</t>
+          <t>2.5331</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -919,36 +1372,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013991</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9509</t>
+          <t>0.4425</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -957,36 +1410,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7743</t>
+          <t>0.4034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1005,26 +1458,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3917</t>
+          <t>0.2822</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1486,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +2261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1839,138 +2500,6 @@
       </c>
       <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6244</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2882</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2045,26 +2574,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.28</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2063</t>
+          <t>2.6244</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2083,26 +2612,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.2882</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2118,126 +2647,126 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>29.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1592</t>
+          <t>1.2063</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.45</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1592</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>